--- a/biology/Zoologie/Dresserus_nigellus/Dresserus_nigellus.xlsx
+++ b/biology/Zoologie/Dresserus_nigellus/Dresserus_nigellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dresserus nigellus est une espèce d'araignées aranéomorphes de la famille des Eresidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dresserus nigellus est une espèce d'araignées aranéomorphes de la famille des Eresidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Cap-Occidental en Afrique du Sud[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Cap-Occidental en Afrique du Sud,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 14 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 14 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tucker, 1920 : Contributions to the South African Arachnid Fauna. II. On some new South African spiders of the families Barychelidae, Dipluridae, Eresidae, Zodariidae, Heracliidae, Urocteidae, Clubionidae. Annals of the South African Museum, vol. 17, p. 439-488 (texte intégral).</t>
         </is>
